--- a/Data/Test SWV/Excel Files/Pbp4.xlsx
+++ b/Data/Test SWV/Excel Files/Pbp4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mar. 8, 2023   22:17:09</t>
+          <t>Mar. 8</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   22:17:09</t>
         </is>
       </c>
     </row>
@@ -543,707 +548,2222 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.004, -4.073e-5, -2.304e-5, 1.768e-5</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.073e-5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.304e-5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.768e-5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.008, -4.104e-5, -2.411e-5, 1.693e-5</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.104e-5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.411e-5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.693e-5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.012, -4.115e-5, -2.470e-5, 1.645e-5</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.115e-5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.470e-5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.645e-5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.016, -4.120e-5, -2.511e-5, 1.609e-5</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.120e-5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.511e-5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.609e-5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.020, -4.125e-5, -2.542e-5, 1.582e-5</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.125e-5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.542e-5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.582e-5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.024, -4.127e-5, -2.569e-5, 1.558e-5</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.127e-5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.569e-5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.558e-5</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.028, -4.132e-5, -2.591e-5, 1.541e-5</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.132e-5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.591e-5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.541e-5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.032, -4.139e-5, -2.612e-5, 1.527e-5</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.139e-5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.612e-5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.527e-5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.036, -4.143e-5, -2.630e-5, 1.513e-5</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.143e-5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.630e-5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.513e-5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.040, -4.149e-5, -2.648e-5, 1.501e-5</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.149e-5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.648e-5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.501e-5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.044, -4.155e-5, -2.665e-5, 1.490e-5</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.155e-5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.665e-5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.490e-5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.048, -4.159e-5, -2.680e-5, 1.479e-5</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.159e-5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.680e-5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.479e-5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.052, -4.168e-5, -2.697e-5, 1.471e-5</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.168e-5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.697e-5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.471e-5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.056, -4.174e-5, -2.713e-5, 1.461e-5</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.174e-5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.713e-5</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.461e-5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.060, -4.180e-5, -2.728e-5, 1.452e-5</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.180e-5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.728e-5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.452e-5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.064, -4.187e-5, -2.743e-5, 1.444e-5</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.187e-5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.743e-5</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.444e-5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.068, -4.193e-5, -2.757e-5, 1.436e-5</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.193e-5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.757e-5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.436e-5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.072, -4.202e-5, -2.773e-5, 1.429e-5</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.202e-5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.773e-5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.429e-5</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.076, -4.205e-5, -2.787e-5, 1.419e-5</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.205e-5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.787e-5</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.419e-5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.080, -4.212e-5, -2.802e-5, 1.410e-5</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.212e-5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.802e-5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.410e-5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.084, -4.218e-5, -2.815e-5, 1.403e-5</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.218e-5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.815e-5</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.403e-5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.088, -4.221e-5, -2.828e-5, 1.393e-5</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.221e-5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.828e-5</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.393e-5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.092, -4.227e-5, -2.841e-5, 1.386e-5</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.841e-5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.386e-5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.096, -4.230e-5, -2.854e-5, 1.376e-5</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.230e-5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.854e-5</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.376e-5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.100, -4.233e-5, -2.866e-5, 1.367e-5</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.233e-5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.866e-5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.367e-5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.104, -4.237e-5, -2.878e-5, 1.359e-5</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.237e-5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.878e-5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.359e-5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.108, -4.237e-5, -2.887e-5, 1.350e-5</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.237e-5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.887e-5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.350e-5</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.112, -4.241e-5, -2.899e-5, 1.342e-5</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.241e-5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.899e-5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.342e-5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.116, -4.242e-5, -2.909e-5, 1.333e-5</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.242e-5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.909e-5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.333e-5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.120, -4.242e-5, -2.918e-5, 1.324e-5</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.242e-5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.918e-5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.324e-5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.124, -4.240e-5, -2.926e-5, 1.314e-5</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.240e-5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.926e-5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.314e-5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.128, -4.238e-5, -2.933e-5, 1.305e-5</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.238e-5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.933e-5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.305e-5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.132, -4.240e-5, -2.941e-5, 1.298e-5</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.240e-5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.941e-5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.298e-5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.136, -4.238e-5, -2.949e-5, 1.289e-5</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.238e-5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.949e-5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.289e-5</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.140, -4.235e-5, -2.954e-5, 1.281e-5</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.235e-5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.954e-5</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.281e-5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.144, -4.234e-5, -2.961e-5, 1.273e-5</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.234e-5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.961e-5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.273e-5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.148, -4.232e-5, -2.966e-5, 1.267e-5</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.232e-5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.966e-5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.267e-5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.152, -4.233e-5, -2.973e-5, 1.260e-5</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.233e-5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.973e-5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.260e-5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.156, -4.230e-5, -2.977e-5, 1.252e-5</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.230e-5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.977e-5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.252e-5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.160, -4.228e-5, -2.982e-5, 1.245e-5</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.228e-5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.982e-5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.245e-5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.164, -4.227e-5, -2.988e-5, 1.239e-5</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.988e-5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.239e-5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.168, -4.225e-5, -2.992e-5, 1.233e-5</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.225e-5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.992e-5</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.233e-5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.172, -4.225e-5, -2.997e-5, 1.228e-5</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.225e-5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -2.997e-5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.228e-5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.176, -4.223e-5, -3.003e-5, 1.221e-5</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.223e-5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.003e-5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.221e-5</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.180, -4.224e-5, -3.008e-5, 1.216e-5</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.224e-5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.008e-5</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.216e-5</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.184, -4.225e-5, -3.013e-5, 1.211e-5</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.225e-5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.013e-5</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.211e-5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.188, -4.224e-5, -3.018e-5, 1.206e-5</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.224e-5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.018e-5</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.206e-5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.192, -4.226e-5, -3.024e-5, 1.203e-5</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.226e-5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.024e-5</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.203e-5</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.196, -4.226e-5, -3.029e-5, 1.197e-5</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.226e-5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.029e-5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.197e-5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.200, -4.227e-5, -3.034e-5, 1.193e-5</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.034e-5</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.193e-5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.204, -4.227e-5, -3.039e-5, 1.188e-5</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.039e-5</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.188e-5</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.208, -4.227e-5, -3.043e-5, 1.184e-5</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.043e-5</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.184e-5</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.212, -4.230e-5, -3.049e-5, 1.181e-5</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.230e-5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.049e-5</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.181e-5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.216, -4.228e-5, -3.053e-5, 1.175e-5</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.228e-5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.053e-5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.175e-5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.220, -4.228e-5, -3.057e-5, 1.171e-5</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.228e-5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.057e-5</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.171e-5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.224, -4.229e-5, -3.061e-5, 1.167e-5</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.229e-5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.061e-5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.167e-5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.228, -4.227e-5, -3.064e-5, 1.163e-5</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.064e-5</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.163e-5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.232, -4.229e-5, -3.069e-5, 1.160e-5</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.229e-5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.069e-5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.160e-5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.236, -4.227e-5, -3.072e-5, 1.155e-5</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.227e-5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.072e-5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.155e-5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.240, -4.226e-5, -3.075e-5, 1.150e-5</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.226e-5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.075e-5</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.150e-5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.244, -4.224e-5, -3.078e-5, 1.147e-5</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.224e-5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.078e-5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.147e-5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.248, -4.221e-5, -3.079e-5, 1.142e-5</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.221e-5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.079e-5</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.142e-5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.252, -4.221e-5, -3.082e-5, 1.139e-5</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.221e-5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.082e-5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.139e-5</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.256, -4.218e-5, -3.084e-5, 1.134e-5</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.218e-5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.084e-5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.134e-5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.260, -4.216e-5, -3.086e-5, 1.130e-5</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.216e-5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.086e-5</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.130e-5</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.264, -4.215e-5, -3.089e-5, 1.127e-5</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.215e-5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.089e-5</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.127e-5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.268, -4.211e-5, -3.089e-5, 1.122e-5</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.211e-5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.089e-5</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.122e-5</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.272, -4.211e-5, -3.092e-5, 1.119e-5</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.211e-5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.092e-5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.119e-5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.276, -4.208e-5, -3.094e-5, 1.115e-5</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.208e-5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.094e-5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.115e-5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.280, -4.204e-5, -3.095e-5, 1.109e-5</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.204e-5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.095e-5</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.109e-5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.284, -4.203e-5, -3.097e-5, 1.106e-5</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.203e-5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.097e-5</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.106e-5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.288, -4.199e-5, -3.097e-5, 1.102e-5</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.199e-5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.097e-5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.102e-5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.292, -4.199e-5, -3.100e-5, 1.099e-5</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.199e-5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.100e-5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.099e-5</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.296, -4.196e-5, -3.102e-5, 1.094e-5</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.196e-5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.102e-5</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.094e-5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.300, -4.192e-5, -3.102e-5, 1.089e-5</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.192e-5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.102e-5</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.089e-5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.304, -4.191e-5, -3.105e-5, 1.085e-5</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.191e-5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.105e-5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.085e-5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.308, -4.187e-5, -3.106e-5, 1.082e-5</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.187e-5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.106e-5</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.082e-5</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.312, -4.187e-5, -3.109e-5, 1.078e-5</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.187e-5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.109e-5</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.078e-5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.316, -4.184e-5, -3.111e-5, 1.073e-5</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.184e-5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.111e-5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.073e-5</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.320, -4.181e-5, -3.112e-5, 1.069e-5</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.181e-5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.112e-5</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.069e-5</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.324, -4.179e-5, -3.114e-5, 1.065e-5</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.179e-5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.114e-5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.065e-5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.328, -4.177e-5, -3.116e-5, 1.061e-5</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.177e-5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.116e-5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.061e-5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.332, -4.175e-5, -3.119e-5, 1.056e-5</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.175e-5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.119e-5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.056e-5</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.336, -4.174e-5, -3.123e-5, 1.051e-5</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.174e-5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.123e-5</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.051e-5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.340, -4.173e-5, -3.125e-5, 1.047e-5</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.173e-5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.125e-5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.047e-5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.344, -4.172e-5, -3.129e-5, 1.043e-5</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.172e-5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.129e-5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.043e-5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.348, -4.170e-5, -3.131e-5, 1.039e-5</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.170e-5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.131e-5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.039e-5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.352, -4.172e-5, -3.136e-5, 1.036e-5</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.172e-5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.136e-5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.036e-5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.356, -4.170e-5, -3.140e-5, 1.030e-5</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.170e-5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.140e-5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.030e-5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.360, -4.170e-5, -3.144e-5, 1.026e-5</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.170e-5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.144e-5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.026e-5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.364, -4.169e-5, -3.148e-5, 1.021e-5</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.169e-5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.148e-5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.021e-5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.368, -4.169e-5, -3.152e-5, 1.016e-5</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.169e-5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.152e-5</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.016e-5</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.372, -4.172e-5, -3.158e-5, 1.013e-5</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.172e-5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.158e-5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.013e-5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.376, -4.171e-5, -3.164e-5, 1.007e-5</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.171e-5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.164e-5</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.007e-5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.380, -4.171e-5, -3.169e-5, 1.002e-5</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.171e-5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.169e-5</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.002e-5</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.384, -4.172e-5, -3.175e-5, 9.970e-6</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.172e-5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.175e-5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.970e-6</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.388, -4.175e-5, -3.182e-5, 9.923e-6</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.175e-5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.182e-5</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.923e-6</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.392, -4.179e-5, -3.190e-5, 9.885e-6</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.179e-5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.190e-5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.885e-6</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.396, -4.179e-5, -3.197e-5, 9.816e-6</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.179e-5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.197e-5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.816e-6</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.400, -4.181e-5, -3.205e-5, 9.757e-6</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -4.181e-5</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -3.205e-5</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9.757e-6</t>
         </is>
       </c>
     </row>
